--- a/results/mp/logistic/toy-spam/confidence/84/stop-words-topk-desired-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/84/stop-words-topk-desired-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="104">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,159 +40,186 @@
     <t>name</t>
   </si>
   <si>
+    <t>paid</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
+    <t>poorly</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
+    <t>return</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>poorly</t>
-  </si>
-  <si>
-    <t>return</t>
+    <t>okay</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>paid</t>
-  </si>
-  <si>
-    <t>however</t>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>cheap</t>
   </si>
   <si>
     <t>tried</t>
   </si>
   <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>cheap</t>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>maybe</t>
   </si>
   <si>
     <t>fl</t>
   </si>
   <si>
-    <t>minutes</t>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>broken</t>
   </si>
   <si>
     <t>di</t>
   </si>
   <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>broken</t>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>thought</t>
   </si>
   <si>
     <t>instructions</t>
   </si>
   <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
     <t>lasted</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
     <t>worked</t>
   </si>
   <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>light</t>
+    <t>doll</t>
   </si>
   <si>
     <t>nothing</t>
   </si>
   <si>
-    <t>doll</t>
+    <t>looked</t>
   </si>
   <si>
     <t>hold</t>
   </si>
   <si>
+    <t>sent</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>money</t>
+    <t>way</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>look</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
     <t>product</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
     <t>toy</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -205,82 +232,97 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
     <t>elf</t>
   </si>
   <si>
-    <t>favorite</t>
+    <t>awesome</t>
   </si>
   <si>
     <t>classic</t>
   </si>
   <si>
-    <t>awesome</t>
+    <t>blast</t>
+  </si>
+  <si>
+    <t>loves</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>loves</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>story</t>
+  </si>
+  <si>
     <t>helicopter</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>grandchildren</t>
   </si>
   <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>blast</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>wonderful</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>wait</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>wait</t>
+    <t>family</t>
   </si>
   <si>
     <t>lego</t>
   </si>
   <si>
-    <t>educational</t>
-  </si>
-  <si>
     <t>ages</t>
   </si>
   <si>
-    <t>family</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>best</t>
   </si>
   <si>
     <t>game</t>
   </si>
   <si>
-    <t>best</t>
+    <t>lots</t>
   </si>
   <si>
     <t>fun</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>easy</t>
   </si>
   <si>
     <t>positive</t>
@@ -641,7 +683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -649,10 +691,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="J1" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -713,10 +755,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="D3">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -731,16 +773,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="K3">
-        <v>0.9148936170212766</v>
+        <v>0.9361702127659575</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -752,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -760,28 +802,28 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9859154929577465</v>
+        <v>1</v>
       </c>
       <c r="C4">
+        <v>148</v>
+      </c>
+      <c r="D4">
+        <v>148</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="D4">
-        <v>70</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="K4">
         <v>0.9</v>
@@ -810,13 +852,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9789473684210527</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="D5">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -828,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K5">
         <v>0.8888888888888888</v>
@@ -860,13 +902,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9757281553398058</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="C6">
-        <v>201</v>
+        <v>70</v>
       </c>
       <c r="D6">
-        <v>201</v>
+        <v>70</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -878,19 +920,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8831168831168831</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -902,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -910,13 +952,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9731182795698925</v>
+        <v>0.9789473684210527</v>
       </c>
       <c r="C7">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c r="D7">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -928,19 +970,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K7">
-        <v>0.8709677419354839</v>
+        <v>0.8817204301075269</v>
       </c>
       <c r="L7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -952,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -960,13 +1002,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -978,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="K8">
-        <v>0.8679245283018868</v>
+        <v>0.875</v>
       </c>
       <c r="L8">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="M8">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1002,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1010,13 +1052,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9516129032258065</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="C9">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D9">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1028,19 +1070,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="K9">
-        <v>0.8615384615384616</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1052,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1060,13 +1102,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9140625</v>
+        <v>0.970873786407767</v>
       </c>
       <c r="C10">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="D10">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1078,19 +1120,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="K10">
-        <v>0.859375</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="L10">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="M10">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1110,13 +1152,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.9090909090909091</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="C11">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D11">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1128,19 +1170,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="K11">
-        <v>0.8571428571428571</v>
+        <v>0.8125</v>
       </c>
       <c r="L11">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="M11">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1152,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1160,13 +1202,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.9074074074074074</v>
+        <v>0.9623655913978495</v>
       </c>
       <c r="C12">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="D12">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1178,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="K12">
-        <v>0.8340248962655602</v>
+        <v>0.8070539419087137</v>
       </c>
       <c r="L12">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="M12">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1202,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1210,13 +1252,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.9074074074074074</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="C13">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1228,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K13">
-        <v>0.8275862068965517</v>
+        <v>0.796875</v>
       </c>
       <c r="L13">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="M13">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1252,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1260,13 +1302,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8947368421052632</v>
+        <v>0.9140625</v>
       </c>
       <c r="C14">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="D14">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1278,19 +1320,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="K14">
-        <v>0.7790530846484935</v>
+        <v>0.7690100430416069</v>
       </c>
       <c r="L14">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="M14">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1302,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1331,16 +1373,16 @@
         <v>7</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K15">
-        <v>0.7678571428571429</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="L15">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="M15">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1352,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1360,13 +1402,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.8688524590163934</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C16">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D16">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1378,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K16">
-        <v>0.7636363636363637</v>
+        <v>0.7321428571428571</v>
       </c>
       <c r="L16">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M16">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1402,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1410,13 +1452,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.8412698412698413</v>
+        <v>0.8857142857142857</v>
       </c>
       <c r="C17">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D17">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1428,19 +1470,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="K17">
-        <v>0.7419354838709677</v>
+        <v>0.7155963302752294</v>
       </c>
       <c r="L17">
-        <v>23</v>
+        <v>234</v>
       </c>
       <c r="M17">
-        <v>23</v>
+        <v>234</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1452,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1460,13 +1502,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.8157894736842105</v>
+        <v>0.8727272727272727</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1481,16 +1523,16 @@
         <v>7</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K18">
-        <v>0.71875</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L18">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="M18">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1502,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1510,13 +1552,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.8104265402843602</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="C19">
-        <v>171</v>
+        <v>52</v>
       </c>
       <c r="D19">
-        <v>171</v>
+        <v>52</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1528,19 +1570,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K19">
-        <v>0.691131498470948</v>
+        <v>0.5852459016393443</v>
       </c>
       <c r="L19">
-        <v>226</v>
+        <v>714</v>
       </c>
       <c r="M19">
-        <v>226</v>
+        <v>714</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1552,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>101</v>
+        <v>506</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1560,13 +1602,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.8103448275862069</v>
+        <v>0.8199052132701422</v>
       </c>
       <c r="C20">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="D20">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1578,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="K20">
-        <v>0.6785714285714286</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1602,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1610,13 +1652,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7702702702702703</v>
+        <v>0.819672131147541</v>
       </c>
       <c r="C21">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D21">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1628,19 +1670,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K21">
-        <v>0.6024096385542169</v>
+        <v>0.5507246376811594</v>
       </c>
       <c r="L21">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="M21">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1652,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>66</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1660,13 +1702,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.765625</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="C22">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D22">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1681,16 +1723,16 @@
         <v>15</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K22">
-        <v>0.5898277276456112</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L22">
-        <v>719</v>
+        <v>36</v>
       </c>
       <c r="M22">
-        <v>720</v>
+        <v>36</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1699,10 +1741,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>500</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1710,13 +1752,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.75</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="C23">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1731,16 +1773,16 @@
         <v>11</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K23">
-        <v>0.5797101449275363</v>
+        <v>0.5120481927710844</v>
       </c>
       <c r="L23">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="M23">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1752,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>29</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1760,13 +1802,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.7428571428571429</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C24">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D24">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1778,19 +1820,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K24">
-        <v>0.5</v>
+        <v>0.5069637883008357</v>
       </c>
       <c r="L24">
-        <v>33</v>
+        <v>182</v>
       </c>
       <c r="M24">
-        <v>33</v>
+        <v>182</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1802,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>33</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1810,13 +1852,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.7228915662650602</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="C25">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D25">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1828,19 +1870,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K25">
-        <v>0.4571428571428571</v>
+        <v>0.5</v>
       </c>
       <c r="L25">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M25">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1852,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1860,13 +1902,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.7105263157894737</v>
+        <v>0.7195121951219512</v>
       </c>
       <c r="C26">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D26">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1878,19 +1920,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K26">
-        <v>0.4528301886792453</v>
+        <v>0.4188034188034188</v>
       </c>
       <c r="L26">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="M26">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1902,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>29</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1910,13 +1952,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6984126984126984</v>
+        <v>0.7162162162162162</v>
       </c>
       <c r="C27">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D27">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1928,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="K27">
-        <v>0.4444444444444444</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="L27">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="M27">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1952,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>65</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1960,13 +2002,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6888888888888889</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C28">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D28">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1978,19 +2020,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K28">
-        <v>0.403899721448468</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="L28">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="M28">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2002,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>214</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2010,13 +2052,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C29">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D29">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2028,19 +2070,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="K29">
-        <v>0.2660609993510707</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="L29">
-        <v>410</v>
+        <v>35</v>
       </c>
       <c r="M29">
-        <v>410</v>
+        <v>35</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2052,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>1131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2060,13 +2102,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6707317073170732</v>
+        <v>0.7068965517241379</v>
       </c>
       <c r="C30">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D30">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2078,19 +2120,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="K30">
-        <v>0.1916666666666667</v>
+        <v>0.2913692407527579</v>
       </c>
       <c r="L30">
-        <v>23</v>
+        <v>449</v>
       </c>
       <c r="M30">
-        <v>23</v>
+        <v>449</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2102,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>97</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2110,13 +2152,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6607142857142857</v>
+        <v>0.7</v>
       </c>
       <c r="C31">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D31">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2128,31 +2170,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K31">
+        <v>0.2786885245901639</v>
+      </c>
+      <c r="L31">
+        <v>34</v>
+      </c>
+      <c r="M31">
+        <v>34</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>88</v>
-      </c>
-      <c r="K31">
-        <v>0.1710526315789474</v>
-      </c>
-      <c r="L31">
-        <v>195</v>
-      </c>
-      <c r="M31">
-        <v>196</v>
-      </c>
-      <c r="N31">
-        <v>0.99</v>
-      </c>
-      <c r="O31">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="P31" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q31">
-        <v>945</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2160,13 +2202,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6521739130434783</v>
+        <v>0.6987951807228916</v>
       </c>
       <c r="C32">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D32">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2178,47 +2220,95 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K32">
+        <v>0.2366345311130587</v>
+      </c>
+      <c r="L32">
+        <v>270</v>
+      </c>
+      <c r="M32">
+        <v>270</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.6190476190476191</v>
+        <v>0.6875</v>
       </c>
       <c r="C33">
+        <v>44</v>
+      </c>
+      <c r="D33">
+        <v>44</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>20</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K33">
+        <v>0.208</v>
+      </c>
+      <c r="L33">
         <v>26</v>
       </c>
-      <c r="D33">
+      <c r="M33">
         <v>26</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.6190476190476191</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="C34">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D34">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2230,21 +2320,45 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K34">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="L34">
+        <v>22</v>
+      </c>
+      <c r="M34">
+        <v>22</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.6134453781512605</v>
+        <v>0.6494845360824743</v>
       </c>
       <c r="C35">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D35">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2256,21 +2370,45 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K35">
+        <v>0.1180555555555556</v>
+      </c>
+      <c r="L35">
+        <v>34</v>
+      </c>
+      <c r="M35">
+        <v>34</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.6111111111111112</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C36">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D36">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2282,21 +2420,45 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K36">
+        <v>0.0748663101604278</v>
+      </c>
+      <c r="L36">
+        <v>28</v>
+      </c>
+      <c r="M36">
+        <v>28</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.6089108910891089</v>
+        <v>0.625</v>
       </c>
       <c r="C37">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="D37">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2308,21 +2470,21 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5925925925925926</v>
+        <v>0.6218487394957983</v>
       </c>
       <c r="C38">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D38">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2334,21 +2496,21 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.5876288659793815</v>
+        <v>0.6115942028985507</v>
       </c>
       <c r="C39">
-        <v>57</v>
+        <v>211</v>
       </c>
       <c r="D39">
-        <v>57</v>
+        <v>211</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2360,21 +2522,21 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.5797101449275363</v>
+        <v>0.5841584158415841</v>
       </c>
       <c r="C40">
-        <v>200</v>
+        <v>118</v>
       </c>
       <c r="D40">
-        <v>200</v>
+        <v>118</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2386,21 +2548,21 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.5126582278481012</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C41">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="D41">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2412,15 +2574,15 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.4791666666666667</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="C42">
         <v>23</v>
@@ -2438,21 +2600,21 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.4642857142857143</v>
+        <v>0.5462962962962963</v>
       </c>
       <c r="C43">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D43">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2464,21 +2626,21 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3956043956043956</v>
+        <v>0.5443037974683544</v>
       </c>
       <c r="C44">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="D44">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2490,21 +2652,21 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3837209302325582</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="C45">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D45">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2516,21 +2678,21 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.3378378378378378</v>
+        <v>0.4835164835164835</v>
       </c>
       <c r="C46">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D46">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2542,21 +2704,21 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2681159420289855</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C47">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="D47">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2568,21 +2730,21 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.23</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C48">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D48">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2594,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>154</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2602,13 +2764,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1993670886075949</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="C49">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D49">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2620,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>253</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2628,13 +2790,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1475409836065574</v>
+        <v>0.3196202531645569</v>
       </c>
       <c r="C50">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="D50">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2646,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>156</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2654,13 +2816,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.05726872246696035</v>
+        <v>0.3152173913043478</v>
       </c>
       <c r="C51">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="D51">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2672,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>428</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2680,13 +2842,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.05044510385756677</v>
+        <v>0.305</v>
       </c>
       <c r="C52">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="D52">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2698,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>640</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2706,13 +2868,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.04885496183206107</v>
+        <v>0.2046783625730994</v>
       </c>
       <c r="C53">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D53">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2724,7 +2886,241 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>623</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.188034188034188</v>
+      </c>
+      <c r="C54">
+        <v>22</v>
+      </c>
+      <c r="D54">
+        <v>22</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.171875</v>
+      </c>
+      <c r="C55">
+        <v>22</v>
+      </c>
+      <c r="D55">
+        <v>22</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>0.1693989071038251</v>
+      </c>
+      <c r="C56">
+        <v>31</v>
+      </c>
+      <c r="D56">
+        <v>31</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>0.1439169139465875</v>
+      </c>
+      <c r="C57">
+        <v>97</v>
+      </c>
+      <c r="D57">
+        <v>97</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>0.1408045977011494</v>
+      </c>
+      <c r="C58">
+        <v>49</v>
+      </c>
+      <c r="D58">
+        <v>49</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>0.1167192429022082</v>
+      </c>
+      <c r="C59">
+        <v>37</v>
+      </c>
+      <c r="D59">
+        <v>37</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>0.1145374449339207</v>
+      </c>
+      <c r="C60">
+        <v>52</v>
+      </c>
+      <c r="D60">
+        <v>52</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>0.09312977099236641</v>
+      </c>
+      <c r="C61">
+        <v>61</v>
+      </c>
+      <c r="D61">
+        <v>61</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
+        <v>0.06018518518518518</v>
+      </c>
+      <c r="C62">
+        <v>26</v>
+      </c>
+      <c r="D62">
+        <v>28</v>
+      </c>
+      <c r="E62">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F62">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>406</v>
       </c>
     </row>
   </sheetData>
